--- a/data/trans_dic/P36$pan-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36$pan-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6943743127149368</v>
+        <v>0.6938371112530619</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7428291280375063</v>
+        <v>0.7421843408216574</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7784381714119938</v>
+        <v>0.7787404973937713</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7743628802450732</v>
+        <v>0.7753617032010746</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8006729836294698</v>
+        <v>0.8020545597269565</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8406661160061204</v>
+        <v>0.8385219226014238</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7528352472269878</v>
+        <v>0.752809323729088</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.780201057575031</v>
+        <v>0.7796198645223937</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8176703080023159</v>
+        <v>0.8172417661266754</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7656591862205188</v>
+        <v>0.7670199855529208</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7971396111169617</v>
+        <v>0.797318397483747</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8284783925194947</v>
+        <v>0.8257751600264739</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8277250243619068</v>
+        <v>0.8282120904792838</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8472246476201516</v>
+        <v>0.8479208827996439</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8817681630630247</v>
+        <v>0.878951659752001</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7946161519648154</v>
+        <v>0.7962247346699138</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8171246622458934</v>
+        <v>0.8163853927280084</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8472164094082361</v>
+        <v>0.8490091715350467</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7430995768119013</v>
+        <v>0.7431934256737668</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7716607739499927</v>
+        <v>0.7695775823734768</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8377053511516256</v>
+        <v>0.8356513487303665</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.745516280387559</v>
+        <v>0.7458800346109197</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7929347227695392</v>
+        <v>0.7911253457080535</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8606680976939031</v>
+        <v>0.8606353812638041</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7533302461453842</v>
+        <v>0.7532052497991291</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7905201342200247</v>
+        <v>0.791252415982439</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.857468249275565</v>
+        <v>0.8581794589212242</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7964065288929716</v>
+        <v>0.7965855810156279</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8277542412677628</v>
+        <v>0.8260481707966719</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8847175689133571</v>
+        <v>0.8825530710741614</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7963945801901493</v>
+        <v>0.7956342199677582</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8396335723302667</v>
+        <v>0.8401549378306185</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9030370626305273</v>
+        <v>0.9009725839193807</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7913810582642745</v>
+        <v>0.7897974582729008</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8255251979293582</v>
+        <v>0.8276749893807548</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8879437882303193</v>
+        <v>0.8873083359770662</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7456442701936997</v>
+        <v>0.7440825572995442</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.801484238201389</v>
+        <v>0.7995884459535425</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8511352056164465</v>
+        <v>0.8535093507743046</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7505508557511062</v>
+        <v>0.7504357955636687</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7993383623701836</v>
+        <v>0.8021210753354368</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8741507227211477</v>
+        <v>0.8752422288025347</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7543757174225512</v>
+        <v>0.7554993911627841</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8091288832779678</v>
+        <v>0.8093475830171278</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8681820879895898</v>
+        <v>0.8688500032667197</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7957975482226871</v>
+        <v>0.7958881085853418</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8520334092508002</v>
+        <v>0.8520130846536804</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8985562481476063</v>
+        <v>0.9006607839101234</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8012078516259056</v>
+        <v>0.8036135331789829</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8524735683130186</v>
+        <v>0.8562870007497463</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9179301728864101</v>
+        <v>0.9180233509908418</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7925220996898606</v>
+        <v>0.7928699448314692</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8464410950166247</v>
+        <v>0.8470154285512691</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8995596825561711</v>
+        <v>0.901983958728853</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7278787136921498</v>
+        <v>0.7252076896852592</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7781472872990782</v>
+        <v>0.7756829093476248</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.810413932226661</v>
+        <v>0.8052623684362312</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7244527289174055</v>
+        <v>0.7218174880831756</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8355118416348581</v>
+        <v>0.8339452513612834</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8541249736330609</v>
+        <v>0.8565535280644373</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7403669528533925</v>
+        <v>0.7388956481472116</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8109418811076667</v>
+        <v>0.8170864402377916</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.843088894170813</v>
+        <v>0.8413255910249203</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8077024652983557</v>
+        <v>0.8082723150934129</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8504049742896694</v>
+        <v>0.8513429093468667</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8767527170981608</v>
+        <v>0.8794062090007526</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8134111773481926</v>
+        <v>0.8141508874423202</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9003208336587637</v>
+        <v>0.8986425411971147</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9119100480417868</v>
+        <v>0.9152172281508709</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7986371858568958</v>
+        <v>0.7992778812345172</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8640112513129555</v>
+        <v>0.8666453783798512</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8863116910236405</v>
+        <v>0.8853631380335799</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7484091465799736</v>
+        <v>0.746400465603741</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7860010669414202</v>
+        <v>0.7856338886566381</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.830900489128111</v>
+        <v>0.8306795426477787</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7673719588557719</v>
+        <v>0.7675469193068475</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8165112364679603</v>
+        <v>0.816155893064875</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8657351502656639</v>
+        <v>0.8654754562080399</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7631938219708814</v>
+        <v>0.7637400669525658</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8045813131777331</v>
+        <v>0.8050085889060653</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8517189400115677</v>
+        <v>0.8524476526134435</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7786912241562677</v>
+        <v>0.7770295342392668</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8148018218421649</v>
+        <v>0.8150959306598486</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8559392496744662</v>
+        <v>0.8565247721274278</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7959112861286982</v>
+        <v>0.7966788207423829</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8423921179669388</v>
+        <v>0.8413765785531172</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8891318680858222</v>
+        <v>0.8890323543676301</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.783152238710151</v>
+        <v>0.7842719383184998</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8242194223040666</v>
+        <v>0.8248158005614951</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.869342635252213</v>
+        <v>0.8700888662588084</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>405613</v>
+        <v>405299</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>773246</v>
+        <v>772575</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>877233</v>
+        <v>877574</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>714220</v>
+        <v>715142</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>894292</v>
+        <v>895836</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1058870</v>
+        <v>1056170</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1134127</v>
+        <v>1134088</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1683576</v>
+        <v>1682321</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1951349</v>
+        <v>1950326</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>447253</v>
+        <v>448048</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>829780</v>
+        <v>829966</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>933624</v>
+        <v>930578</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>763438</v>
+        <v>763887</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>946287</v>
+        <v>947065</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1110641</v>
+        <v>1107093</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1197069</v>
+        <v>1199492</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1763252</v>
+        <v>1761657</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2021860</v>
+        <v>2026138</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>798696</v>
+        <v>798797</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>752523</v>
+        <v>750491</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>759656</v>
+        <v>757794</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>786957</v>
+        <v>787341</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>867678</v>
+        <v>865698</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>864399</v>
+        <v>864366</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1604898</v>
+        <v>1604631</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1635951</v>
+        <v>1637466</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1638763</v>
+        <v>1640123</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>855991</v>
+        <v>856184</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>807225</v>
+        <v>805561</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>802288</v>
+        <v>800326</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>840664</v>
+        <v>839861</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>918779</v>
+        <v>919350</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>906952</v>
+        <v>904878</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1685961</v>
+        <v>1682588</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1708392</v>
+        <v>1712841</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1697007</v>
+        <v>1695793</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>834258</v>
+        <v>832511</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>709406</v>
+        <v>707728</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>700371</v>
+        <v>702325</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>745196</v>
+        <v>745082</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>699129</v>
+        <v>701563</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>674022</v>
+        <v>674863</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1593021</v>
+        <v>1595394</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1423865</v>
+        <v>1424249</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1383818</v>
+        <v>1384883</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>890372</v>
+        <v>890473</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>754148</v>
+        <v>754130</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>739392</v>
+        <v>741124</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>795492</v>
+        <v>797881</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>745603</v>
+        <v>748939</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>707778</v>
+        <v>707850</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1673575</v>
+        <v>1674310</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1489525</v>
+        <v>1490535</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1433832</v>
+        <v>1437696</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>324854</v>
+        <v>323662</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>390616</v>
+        <v>389379</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>410638</v>
+        <v>408027</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>247153</v>
+        <v>246254</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>376628</v>
+        <v>375922</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>417313</v>
+        <v>418499</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>583009</v>
+        <v>581851</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>772630</v>
+        <v>778484</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>839115</v>
+        <v>837360</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>360479</v>
+        <v>360734</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>426888</v>
+        <v>427359</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>444251</v>
+        <v>445596</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>277502</v>
+        <v>277754</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>405842</v>
+        <v>405086</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>445546</v>
+        <v>447161</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>628895</v>
+        <v>629399</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>823192</v>
+        <v>825702</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>882134</v>
+        <v>881190</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2412947</v>
+        <v>2406471</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2674953</v>
+        <v>2673703</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2794578</v>
+        <v>2793834</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2541493</v>
+        <v>2542072</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2887672</v>
+        <v>2886415</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3050452</v>
+        <v>3049537</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>4988270</v>
+        <v>4991840</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5583667</v>
+        <v>5586632</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5865662</v>
+        <v>5870681</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2510580</v>
+        <v>2505222</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2772969</v>
+        <v>2773970</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2878791</v>
+        <v>2880760</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2636014</v>
+        <v>2638556</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2979202</v>
+        <v>2975611</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3132892</v>
+        <v>3132541</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5118719</v>
+        <v>5126037</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>5719953</v>
+        <v>5724091</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5987034</v>
+        <v>5992173</v>
       </c>
     </row>
     <row r="24">
